--- a/biology/Botanique/Plantain/Plantain.xlsx
+++ b/biology/Botanique/Plantain/Plantain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -513,18 +525,12 @@
           <t>Botanique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plantain est un nom vernaculaire désignant diverses plantes herbacées.
-Plantains au sens botanique
-Les plantains véritables, sont des plantes herbacées du genre Plantago, famille des Plantaginaceae, notamment :
-le Grand plantain (Plantago major) ;
-le Plantain moyen (Plantago media) ;
-le Plantain lancéolé (Plantago lanceolata), etc. ;
-les plantains d'eau, des plantes du genre Alisma, famille des Alismataceae.
-Bananiers
-La banane plantain (Musa ×paradisiaca L., 1753), une espèce hybride de bananes du genre Musa.
-« Plantains vrais », groupe de cultivars du genre Musa.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plantain est un nom vernaculaire désignant diverses plantes herbacées.
+</t>
         </is>
       </c>
     </row>
@@ -549,12 +555,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Patronyme</t>
+          <t>Botanique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>André Plantain (1901-1967), un homme politique français.</t>
+          <t>Plantains au sens botanique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les plantains véritables, sont des plantes herbacées du genre Plantago, famille des Plantaginaceae, notamment :
+le Grand plantain (Plantago major) ;
+le Plantain moyen (Plantago media) ;
+le Plantain lancéolé (Plantago lanceolata), etc. ;
+les plantains d'eau, des plantes du genre Alisma, famille des Alismataceae.</t>
         </is>
       </c>
     </row>
@@ -579,10 +595,81 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Botanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bananiers</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La banane plantain (Musa ×paradisiaca L., 1753), une espèce hybride de bananes du genre Musa.
+« Plantains vrais », groupe de cultivars du genre Musa.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Plantain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Patronyme</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>André Plantain (1901-1967), un homme politique français.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plantain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Toponymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plantain Garden River (en), en Jamaïque.
 Rivière Plantain, un affluent du golfe du Saint-Laurent, coulant dans L'Île-d'Anticosti, MRC de Minganie, Côte-Nord, au Québec, au Canada.
